--- a/Plan/Table/LiveData/04.CardAddData.xlsx
+++ b/Plan/Table/LiveData/04.CardAddData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\LiveData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA90E29-6B3A-4FBA-8839-8F6E508DAB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC02593-0E5A-4C47-94A0-028E05CF1C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14505" windowHeight="13485" xr2:uid="{167B035A-03AD-4013-AADC-ACD459500239}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14505" windowHeight="13485" xr2:uid="{7B87656A-8C4C-4BEF-B715-9BA584F8CD19}"/>
   </bookViews>
   <sheets>
     <sheet name="04.CardAddData" sheetId="1" r:id="rId1"/>
@@ -451,9 +451,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB25CD63-BDF4-46E4-8854-D1C1ADFA8E19}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF896EE-1B7F-4D65-92F2-0EE7CE08CDBB}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
@@ -1021,6 +1020,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
